--- a/resources/input.xlsx
+++ b/resources/input.xlsx
@@ -11,18 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Fish</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Re Password</t>
+  </si>
+  <si>
+    <t>Success msg</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>IMRAN</t>
+  </si>
+  <si>
+    <t>imran@gmail.com</t>
+  </si>
+  <si>
+    <t>Register</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.25"/>
+    <col customWidth="1" min="1" max="1" width="11.88"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -289,21 +308,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>500.0</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/resources/input.xlsx
+++ b/resources/input.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -341,6 +341,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12345.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
